--- a/userSystem/matchhistory.xlsx
+++ b/userSystem/matchhistory.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\LeaderBoard\userSystem\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9CF0634-DF7F-4B8A-931A-9C2D63E0A7A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33255" yWindow="2025" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
   <si>
     <t>TeamA</t>
   </si>
@@ -35,14 +30,73 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>VeXuZ_,BackSlasher</t>
+  </si>
+  <si>
+    <t>ELMP, onno_ole</t>
+  </si>
+  <si>
+    <t>onno_ole, VeXuZ_</t>
+  </si>
+  <si>
+    <t>ELMP, BackSlasher</t>
+  </si>
+  <si>
+    <t>onno_ole, BackSlasher</t>
+  </si>
+  <si>
+    <t>ELMP, VeXuZ_</t>
+  </si>
+  <si>
+    <t>VeXuZ_, BackSlasher</t>
+  </si>
+  <si>
+    <t>Xiphias, ELMP</t>
+  </si>
+  <si>
+    <t>Xiphias, BackSlasher</t>
+  </si>
+  <si>
+    <t>onno_ole, Xiphias</t>
+  </si>
+  <si>
+    <t>BackSlasher, ELMP</t>
+  </si>
+  <si>
+    <t>BackSlasher, onno_ole</t>
+  </si>
+  <si>
+    <t>ELMP, Xiphias</t>
+  </si>
+  <si>
+    <t>onno_ole, ELMP</t>
+  </si>
+  <si>
+    <t>Xiphias, onno_ole</t>
+  </si>
+  <si>
+    <t>ELMP,  Xiphias</t>
+  </si>
+  <si>
+    <t>VeXuZ_</t>
+  </si>
+  <si>
+    <t>giggo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -53,7 +107,10 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="none"/>
@@ -66,36 +123,30 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
 </file>
 
@@ -385,21 +436,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="9.140625" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" customWidth="true" style="0"/>
+    <col min="3" max="3" width="20.85546875" customWidth="true" style="0"/>
+    <col min="4" max="4" width="26.85546875" customWidth="true" style="0"/>
+    <col min="5" max="5" width="16.5703125" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -416,8 +471,290 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>1586047524</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>1586048007</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>1586048469</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>1586048991</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <v>1586049487</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7">
+        <v>1586124264</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8">
+        <v>1586124758</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9">
+        <v>1586125223</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10">
+        <v>1586125717</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11">
+        <v>1586126223</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12">
+        <v>1586126655</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13">
+        <v>1586127136</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1586127685</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>1586136875</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>42</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1586136900</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>1586136935</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.787401575" bottom="0.787401575" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
 </worksheet>
 </file>